--- a/output/item/TV/2021-12-19_TV.xlsx
+++ b/output/item/TV/2021-12-19_TV.xlsx
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LG전자 OLED55A1ENA</t>
+          <t>삼성전자 삼성 KQ85QA60AFXKR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27478486522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26381357522</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2747848/27478486522.20211126133616.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2638135/26381357522.20210420162313.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1100330</t>
+          <t>3092020</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -536,12 +536,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>OLEDTV</t>
+          <t>LEDTV</t>
         </is>
       </c>
     </row>
@@ -571,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LG전자 32LM580BEND</t>
+          <t>LG전자 OLED55A1ENA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22542844860</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27478486522</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2254284/22542844860.20210401013031.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2747848/27478486522.20211126133616.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>278440</t>
+          <t>1100330</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>LEDTV</t>
+          <t>OLEDTV</t>
         </is>
       </c>
     </row>
@@ -637,22 +637,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KQ85QA60AFXKR</t>
+          <t>LG전자 32LM580BEND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26381357522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22542844860</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2638135/26381357522.20210420162313.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2254284/22542844860.20210401013031.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3091970</t>
+          <t>278340</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -668,12 +668,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -769,22 +769,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>유맥스 MX32H</t>
+          <t>삼성전자 삼성 KQ65QA80AFXKR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15728271327</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26522551522</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1572827/15728271327.20200615144817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2652255/26522551522.20210326093931.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>165000</t>
+          <t>1813220</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -800,12 +800,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>LEDTV</t>
+          <t>QLEDTV</t>
         </is>
       </c>
     </row>
@@ -835,22 +835,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KQ65QA80AFXKR</t>
+          <t>유맥스 MX32H</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26522551522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15728271327</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2652255/26522551522.20210326093931.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1572827/15728271327.20200615144817.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1813220</t>
+          <t>165000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -866,12 +866,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>유맥스</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>유맥스</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>QLEDTV</t>
+          <t>LEDTV</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1959280</t>
+          <t>1959230</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1675770</t>
+          <t>1675720</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이노스 S6501KU</t>
+          <t>삼성전자 삼성 KQ50QNA90AFXKR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18668184796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26337236522</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1866818/18668184796.20210630155138.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2633723/26337236522.20210312171039.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>579370</t>
+          <t>1166500</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>이노스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>이노스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>LEDTV</t>
+          <t>QLEDTV</t>
         </is>
       </c>
     </row>
@@ -1099,22 +1099,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KQ50QNA90AFXKR</t>
+          <t>이노스 S6501KU</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26337236522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18668184796</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2633723/26337236522.20210312171039.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1866818/18668184796.20210630155138.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1166500</t>
+          <t>579370</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>이노스</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>이노스</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>QLEDTV</t>
+          <t>LEDTV</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1666640</t>
+          <t>1666590</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1363,22 +1363,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ELEX TV8550</t>
+          <t>유맥스 UHD55L</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23097677490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15219957930</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2309767/23097677490.20200610153310.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1521995/15219957930.20200612140944.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>430760</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1394,12 +1394,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>유맥스</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>유맥스</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>루컴즈전자 루컴즈 T6503TU IPS HDR</t>
+          <t>한성컴퓨터 ELEX TV8550</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21453412782</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23097677490</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2145341/21453412782.20210408165256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2309767/23097677490.20200610153310.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>697430</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1460,12 +1460,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>루컴즈</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>루컴즈전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1495,22 +1495,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>유맥스 UHD55L</t>
+          <t>루컴즈전자 루컴즈 T6503TU IPS HDR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15219957930</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21453412782</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1521995/15219957930.20200612140944.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2145341/21453412782.20210408165256.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>430760</t>
+          <t>697430</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>루컴즈</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>루컴즈전자</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1627,22 +1627,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>유맥스 Ai43 구글공식인증 스마트TV 크롬캐스트</t>
+          <t>루컴즈전자 루컴즈 T3207CF</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22956484490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23604236490</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2295648/22956484490.20200615145357.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2360423/23604236490.20210322142456.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>226710</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1658,12 +1658,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>루컴즈</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>루컴즈전자</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1693,22 +1693,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>루컴즈전자 루컴즈 T3207CF</t>
+          <t>유맥스 Ai43 구글공식인증 스마트TV 크롬캐스트</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23604236490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22956484490</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2360423/23604236490.20210322142456.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2295648/22956484490.20200615145357.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>226710</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1724,12 +1724,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>루컴즈</t>
+          <t>유맥스</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>루컴즈전자</t>
+          <t>유맥스</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1891,22 +1891,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>라익미 스마트 DS5001L 4K HDR 다이렉트TV</t>
+          <t>LG전자 65UN7850KNA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26158454523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22952330492</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2615845/26158454523.20210820142843.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2295233/22952330492.20210401011302.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>1289620</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1922,12 +1922,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>라익미</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>라익미</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1957,22 +1957,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LG전자 65UN7850KNA</t>
+          <t>라익미 스마트 DS5001L 4K HDR 다이렉트TV</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22952330492</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26158454523</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2295233/22952330492.20210401011302.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2615845/26158454523.20210820142843.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1289620</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>라익미</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>라익미</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>698380</t>
+          <t>698280</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2788030</t>
+          <t>2787980</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2683,22 +2683,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>클라인즈 KIZ32HD</t>
+          <t>삼성전자 삼성 KU43UT8070FXKR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15342232946</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22269119283</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1534223/15342232946.20210621130429.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2226911/22269119283.20200407174803.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>680000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2714,12 +2714,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>클라인즈</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>클라인즈</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2749,22 +2749,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KU43UT8070FXKR</t>
+          <t>클라인즈 KIZ32HD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22269119283</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15342232946</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2226911/22269119283.20200407174803.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1534223/15342232946.20210621130429.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>680000</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2780,12 +2780,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>클라인즈</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>클라인즈</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1248480</t>
+          <t>1248430</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3339,43 +3339,43 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>더함 UA431UHD</t>
+          <t>삼성전자 UHD 4K 50인치 55인치 65인치 75인치 LED 비즈니스 TV 모니터</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28788691554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80768180189</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2878869/28788691554.20210910114604.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8076818/80768180189.57.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>스마트쇼핑몰.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>792080</t>
+          <t>792030</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3471,43 +3471,43 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>삼성전자 UHD 4K 50인치 55인치 65인치 75인치 LED 비즈니스 TV 모니터</t>
+          <t>이스트라 COOCAA UC651UHD 더 스마트 AI PRO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80768180189</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26320717522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8076818/80768180189.57.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2632071/26320717522.20210316172700.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>738850</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>스마트쇼핑몰.</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>COOCAA</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3537,22 +3537,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>유맥스 Ai50 구글공식인증 스마트TV 크롬캐스트</t>
+          <t>더함 UA431UHD</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22956763490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28788691554</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2295676/22956763490.20200615145420.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2878869/28788691554.20210910114604.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>422000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3568,12 +3568,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3603,22 +3603,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>폴라로이드 POL32H</t>
+          <t>삼성전자 삼성 KU70UA7000FXKR</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13663392349</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27478399522</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1366339/13663392349.20210205164551.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2747839/27478399522.20210607165730.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>138950</t>
+          <t>1227360</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3634,12 +3634,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>폴라로이드</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>폴라로이드</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>이스트라 COOCAA UC651UHD 더 스마트 AI PRO</t>
+          <t>유맥스 Ai50 구글공식인증 스마트TV 크롬캐스트</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26320717522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22956763490</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2632071/26320717522.20210316172700.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2295676/22956763490.20200615145420.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>738680</t>
+          <t>422000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3700,12 +3700,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>COOCAA</t>
+          <t>유맥스</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>이스트라</t>
+          <t>유맥스</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3735,22 +3735,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KU70UA7000FXKR</t>
+          <t>LG전자 울트라HD 65UP8300NNA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27478399522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26869430522</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2747839/27478399522.20210607165730.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2686943/26869430522.20210422135712.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1227410</t>
+          <t>1258350</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1724160</t>
+          <t>1724150</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3867,22 +3867,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 65UP8300NNA</t>
+          <t>폴라로이드 POL32H</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26869430522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13663392349</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2686943/26869430522.20210422135712.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1366339/13663392349.20210205164551.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1258350</t>
+          <t>138950</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3898,12 +3898,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>폴라로이드</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>폴라로이드</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3933,22 +3933,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>이스트라 AN430UHD 안드로이드 더 스마트 AI</t>
+          <t>이스트라 COOCAA UC431UHD</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25154449522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21451611442</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2515444/25154449522.20210831145636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2145161/21451611442.20210318121838.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>318270</t>
+          <t>367660</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>이스트라</t>
+          <t>COOCAA</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3999,22 +3999,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>이스트라 COOCAA UC431UHD</t>
+          <t>삼성전자 삼성 KU43UA8070FXKR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21451611442</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26661081522</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2145161/21451611442.20210318121838.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2666108/26661081522.20210406162051.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>367660</t>
+          <t>616830</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -4030,12 +4030,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>COOCAA</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>이스트라</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4065,22 +4065,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>더함 노바 N551UHD</t>
+          <t>이스트라 AN430UHD 안드로이드 더 스마트 AI</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22665443390</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25154449522</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2266544/22665443390.20201124095402.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2515444/25154449522.20210831145636.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>400400</t>
+          <t>318270</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4131,22 +4131,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>이스트라 COOCAA UC551UHD 더 스마트 AI PRO</t>
+          <t>LG전자 43UP8300ENA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21225114324</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27300170522</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2122511/21225114324.20211103160559.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2730017/27300170522.20210525112645.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>559300</t>
+          <t>613290</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4162,12 +4162,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>COOCAA</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>이스트라</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4197,22 +4197,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KU43UA8070FXKR</t>
+          <t>더함 노바 N551UHD</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26661081522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22665443390</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2666108/26661081522.20210406162051.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2266544/22665443390.20201124095402.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>616830</t>
+          <t>400400</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4228,12 +4228,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KU85UA8070FXKR</t>
+          <t>이스트라 COOCAA UC551UHD 더 스마트 AI PRO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26659879523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21225114324</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2665987/26659879523.20210406135446.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2122511/21225114324.20211103160559.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2686270</t>
+          <t>559300</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4294,12 +4294,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>COOCAA</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4329,22 +4329,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LG전자 43UP8300ENA</t>
+          <t>삼성전자 삼성 KU85UA8070FXKR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27300170522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26659879523</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2730017/27300170522.20210525112645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2665987/26659879523.20210406135446.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>613290</t>
+          <t>2686220</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4360,12 +4360,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4395,22 +4395,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>루컴즈전자 루컴즈 T6505TUA</t>
+          <t>삼성전자 삼성 KU55UT7000FXKR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25732239522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22213483053</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2573223/25732239522.20210805114444.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2221348/22213483053.20200410111556.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>770880</t>
+          <t>764800</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4426,12 +4426,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>루컴즈</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>루컴즈전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4461,22 +4461,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>피디케이전자 스마트에버 SA50G</t>
+          <t>루컴즈전자 루컴즈 T6505TUA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25093811522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25732239522</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2509381/25093811522.20201207132036.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2573223/25732239522.20210805114444.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>443950</t>
+          <t>770880</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4492,12 +4492,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>스마트에버</t>
+          <t>루컴즈</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>피디케이전자</t>
+          <t>루컴즈전자</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4527,22 +4527,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>이스트라 AN550UHD 안드로이드 더 스마트 AI</t>
+          <t>피디케이전자 스마트에버 SA50G</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23737174490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25093811522</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2373717/23737174490.20210831145710.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2509381/25093811522.20201207132036.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>477260</t>
+          <t>443850</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4558,12 +4558,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>이스트라</t>
+          <t>스마트에버</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>이스트라</t>
+          <t>피디케이전자</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4593,22 +4593,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KU55UT7000FXKR</t>
+          <t>이스트라 COOCAA UC751UHD 더 스마트 AI PRO</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22213483053</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26672094522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2221348/22213483053.20200410111556.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667209/26672094522.20210409170052.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>764850</t>
+          <t>1172990</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4624,12 +4624,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>COOCAA</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4659,22 +4659,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>루컴즈전자 루컴즈 T4303C</t>
+          <t>이스트라 AN753UHD 스마트 THE 울트라</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11462006939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29232120618</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1146200/11462006939.20210322183046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2923212/29232120618.20211021172924.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>351150</t>
+          <t>1078180</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4690,12 +4690,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>루컴즈</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>루컴즈전자</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4725,22 +4725,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>더함 UA551UHD</t>
+          <t>삼성전자 삼성 UN32N4000AFXKR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28789368554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16216662156</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2878936/28789368554.20210910125750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1621666/16216662156.20190111115420.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>469000</t>
+          <t>253050</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4791,22 +4791,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KU65UT7000FXKR</t>
+          <t>이스트라 AN550UHD 안드로이드 더 스마트 AI</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22213483063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23737174490</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2221348/22213483063.20200318111031.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2373717/23737174490.20210831145710.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1075180</t>
+          <t>477250</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4822,12 +4822,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4857,22 +4857,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>라익미 스마트 UV650 크롬캐스트 안드로이드 IPS</t>
+          <t>삼성전자 삼성 KU50UA8070FXKR</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27776369522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26661009522</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2777636/27776369522.20211029155349.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2666100/26661009522.20210406161354.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>579000</t>
+          <t>715860</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4888,12 +4888,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>라익미</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>라익미</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4923,22 +4923,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>이스트라 COOCAA UC751UHD 더 스마트 AI PRO</t>
+          <t>삼성전자 삼성 KU70UA8070FXKR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26672094522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26660039523</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667209/26672094522.20210409170052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2666003/26660039523.20210406141512.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1172990</t>
+          <t>1431190</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4954,12 +4954,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>COOCAA</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>이스트라</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4989,22 +4989,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>이스트라 AN753UHD 스마트 THE 울트라</t>
+          <t>삼성전자 KU50UA7050FXKR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29232120618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27328388522</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2923212/29232120618.20211021172924.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732838/27328388522.20210527110149.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1078180</t>
+          <t>723910</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -5018,14 +5018,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>이스트라</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>이스트라</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5055,22 +5051,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>더함 UA501UHD</t>
+          <t>루컴즈전자 루컴즈 T4303C</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28788875554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11462006939</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2878887/28788875554.20210910120347.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1146200/11462006939.20210322183046.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>351150</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -5086,12 +5082,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>루컴즈</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>루컴즈전자</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5121,22 +5117,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 UN32N4000AFXKR</t>
+          <t>LG전자 32LM581CBND</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16216662156</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25732366523</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1621666/16216662156.20190111115420.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2573236/25732366523.20210401012823.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>253070</t>
+          <t>285060</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -5152,12 +5148,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5187,22 +5183,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KU70UA8070FXKR</t>
+          <t>삼성전자 삼성 KU65UT7000FXKR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26660039523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22213483063</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2666003/26660039523.20210406141512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2221348/22213483063.20200318111031.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1431200</t>
+          <t>1075180</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5253,22 +5249,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>더함 노바 N651UHD IPS</t>
+          <t>더함 UA551UHD</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19825069911</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28789368554</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1982506/19825069911.20210325165729.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2878936/28789368554.20210910125750.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>535860</t>
+          <t>469000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5319,22 +5315,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>삼성전자 KU50UA7050FXKR</t>
+          <t>라익미 스마트 UV650 크롬캐스트 안드로이드 IPS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27328388522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27776369522</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732838/27328388522.20210527110149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2777636/27776369522.20211029155349.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>712750</t>
+          <t>579000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5348,10 +5344,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>라익미</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>라익미</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5381,22 +5381,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LG전자 32LM581CBND</t>
+          <t>더함 노바 N651UHD IPS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25732366523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19825069911</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2573236/25732366523.20210401012823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1982506/19825069911.20210325165729.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>285060</t>
+          <t>535860</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5412,12 +5412,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5447,22 +5447,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>프리즘코리아 A43i google android TV BT50</t>
+          <t>더함 UA501UHD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23401556494</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28788875554</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2340155/23401556494.20210129142758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2878887/28788875554.20210910120347.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5478,12 +5478,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>프리즘코리아</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>프리즘코리아</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5513,22 +5513,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 KU50UA8070FXKR</t>
+          <t>프리즘코리아 A43i google android TV BT50</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26661009522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23401556494</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2666100/26661009522.20210406161354.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2340155/23401556494.20210129142758.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>715910</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5544,12 +5544,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>프리즘코리아</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>프리즘코리아</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5579,22 +5579,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>라익미 K4012S FHD</t>
+          <t>더함 노바 N431UHD IPS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26687470522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18711035378</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2668747/26687470522.20210914174927.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1871103/18711035378.20201124100713.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>278950</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5610,12 +5610,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>라익미</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>라익미</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5645,22 +5645,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>더함 노바 N431UHD IPS</t>
+          <t>LG전자 86UR642S0NC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18711035378</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29230563621</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1871103/18711035378.20201124100713.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2923056/29230563621.20211014162900.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>278950</t>
+          <t>2665950</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5676,12 +5676,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5843,43 +5843,43 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>루컴즈전자 루컴즈 T4307TUA</t>
+          <t>삼성전자 32인치 40인치 42인치 43인치 50인치 55인치 65인치 75인치 FHD UHD LED 사이니지 TV</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26600403522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81965806416</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2660040/26600403522.20210805133942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8196580/81965806416.76.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>379210</t>
+          <t>377000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성TV전문리드몰</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>루컴즈</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>루컴즈전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5909,22 +5909,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>이엔티비 DIEN32H-MT</t>
+          <t>라익미 K4012S FHD</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20851726114</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26687470522</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2085172/20851726114.20210415144023.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2668747/26687470522.20210914174927.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5940,12 +5940,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>이엔티비</t>
+          <t>라익미</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>이엔티비</t>
+          <t>라익미</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5975,22 +5975,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>루컴즈전자 루컴즈 T3206TA</t>
+          <t>루컴즈전자 루컴즈 T4307TUA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26647883522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26600403522</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2664788/26647883522.20210805134636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2660040/26600403522.20210805133942.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>257480</t>
+          <t>379210</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -6041,22 +6041,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LG전자 86UR642S0NC</t>
+          <t>이엔티비 DIEN32H-MT</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29230563621</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20851726114</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2923056/29230563621.20211014162900.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2085172/20851726114.20210415144023.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2665950</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -6072,12 +6072,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>이엔티비</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>이엔티비</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6107,22 +6107,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>이스트라 AN553UHD 스마트 THE 울트라</t>
+          <t>LG전자 86NANO75KPA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29203569618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27788171523</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2920356/29203569618.20211022152758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2778817/27788171523.20210630095001.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>489130</t>
+          <t>3380830</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -6136,14 +6136,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>이스트라</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>이스트라</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6173,22 +6169,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>브라운슈거 K32</t>
+          <t>루컴즈전자 루컴즈 T3206TA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28123248524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26647883522</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2812324/28123248524.20210723123255.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2664788/26647883522.20210805134636.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>123830</t>
+          <t>257480</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -6202,8 +6198,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>루컴즈</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>루컴즈전자</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6231,43 +6235,43 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>삼성전자 32인치 40인치 42인치 43인치 50인치 55인치 65인치 75인치 FHD UHD LED 사이니지 TV</t>
+          <t>프리즘코리아 A5011i</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81965806416</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29920573618</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8196580/81965806416.76.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2992057/29920573618.20211213103014.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>377000</t>
+          <t>414000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>삼성TV전문리드몰</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>프리즘코리아</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>프리즘코리아</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6297,22 +6301,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>와사비망고 WM UV580 UHDTV MAX HDR</t>
+          <t>LG전자 울트라HD 65UP8300KNA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24610614522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655211555</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2461061/24610614522.20201030151514.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865521/28655211555.20210831144304.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>1286670</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6328,12 +6332,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>와사비망고</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>와사비망고</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6363,22 +6367,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LG전자 86NANO75KPA</t>
+          <t>와사비망고 WM UV580 UHDTV MAX HDR</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27788171523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24610614522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2778817/27788171523.20210630095001.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2461061/24610614522.20201030151514.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3380830</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6392,10 +6396,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>와사비망고</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>와사비망고</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6425,22 +6433,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>와사비망고 WM F420 FHDTV MAX</t>
+          <t>브라운슈거 K32</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28415691554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28123248524</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2841569/28415691554.20210820091510.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2812324/28123248524.20210723123255.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>123830</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6454,16 +6462,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>와사비망고</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>와사비망고</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6619,22 +6619,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>루컴즈전자 루컴즈 T5002CUA</t>
+          <t>이스트라 AN553UHD 스마트 THE 울트라</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26599727522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29203569618</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2659972/26599727522.20210805134303.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2920356/29203569618.20211022152758.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>508464</t>
+          <t>489130</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6650,12 +6650,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>루컴즈</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>루컴즈전자</t>
+          <t>이스트라</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6685,22 +6685,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>프리즘코리아 A5011i</t>
+          <t>와사비망고 WM F420 FHDTV MAX</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29920573618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28415691554</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2992057/29920573618.20211213103014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2841569/28415691554.20210820091510.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>414000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6716,12 +6716,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>프리즘코리아</t>
+          <t>와사비망고</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>프리즘코리아</t>
+          <t>와사비망고</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6751,22 +6751,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 65UP8300KNA</t>
+          <t>유맥스 Ai65 구글공식인증 스마트TV 크롬캐스트</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655211555</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22957126490</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865521/28655211555.20210831144304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2295712/22957126490.20200615145505.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1286670</t>
+          <t>677100</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6782,12 +6782,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>유맥스</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>유맥스</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6817,22 +6817,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>유맥스 Ai65 구글공식인증 스마트TV 크롬캐스트</t>
+          <t>루컴즈전자 루컴즈 T5002CUA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22957126490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26599727522</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2295712/22957126490.20200615145505.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2659972/26599727522.20210805134303.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>677100</t>
+          <t>508464</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6848,12 +6848,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>루컴즈</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>루컴즈전자</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6883,43 +6883,43 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>유맥스 UHD50L</t>
+          <t>LG 28인치 넷플릭스 스마트TV 소형TV 룸앤TV 캠핑티비 벽걸이 가능 에너지효율1등급</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21304285970</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83196202119</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2130428/21304285970.20200615145225.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8319620/83196202119.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>355000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>LG총판</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>유맥스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6949,33 +6949,33 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LG 28인치 넷플릭스 스마트TV 소형TV 룸앤TV 캠핑티비 벽걸이 가능 에너지효율1등급</t>
+          <t>LG전자 70UP8300ENA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83196202119</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26868050528</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8319620/83196202119.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2686805/26868050528.20210422122902.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>1368850</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>LG총판</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
